--- a/TimeWorksheet.xlsx
+++ b/TimeWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwke\csv-to-yaml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E2A2E2-A4A4-4AAF-A390-8CE3262B08F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2A54A-466F-44B9-A3D5-73C3E5F9FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{013D9D41-CE1B-4ED5-A3F2-00E36FCFC5C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Week 1</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Uploading the Confing and The Yamle file  (Working)</t>
+  </si>
+  <si>
+    <t>Creating The Helm app and Database for users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database for users and Solving bugs </t>
+  </si>
+  <si>
+    <t>Configuring Routing</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,6 +611,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -610,6 +622,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -617,6 +632,9 @@
       </c>
       <c r="B10" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">

--- a/TimeWorksheet.xlsx
+++ b/TimeWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwke\csv-to-yaml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2A54A-466F-44B9-A3D5-73C3E5F9FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FD2D6A-E6B2-4A00-9C8E-A9F69A288CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{013D9D41-CE1B-4ED5-A3F2-00E36FCFC5C4}"/>
+    <workbookView xWindow="3660" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{013D9D41-CE1B-4ED5-A3F2-00E36FCFC5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Week 1</t>
   </si>
@@ -144,6 +144,39 @@
   </si>
   <si>
     <t>Configuring Routing</t>
+  </si>
+  <si>
+    <t>Config file Populating 1</t>
+  </si>
+  <si>
+    <t>Config file Populating 2 &amp; CSV Upload condition</t>
+  </si>
+  <si>
+    <t>Architecture Files Populating 1</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>1/8 --- 7/8</t>
+  </si>
+  <si>
+    <t>8/8 --- 14/8</t>
+  </si>
+  <si>
+    <t>15/8 --- 21/8</t>
+  </si>
+  <si>
+    <t>22/8 --- 28/8</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
 </sst>
 </file>
@@ -179,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5689DD4-7DE1-4551-9B26-7FE3EB674D7D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +678,9 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -652,6 +689,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -659,6 +699,41 @@
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
